--- a/data/albums/albums.xlsx
+++ b/data/albums/albums.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jon/GitHub/new_site/data/albums/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17033DB3-4112-E442-BF0E-D50ABCE3FB3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F58978-DC22-894C-8FD7-676A39FBD327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="21960" windowHeight="15020" xr2:uid="{5601BA58-84B4-764B-A9FB-C98724BD682E}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="21960" windowHeight="15020" activeTab="1" xr2:uid="{5601BA58-84B4-764B-A9FB-C98724BD682E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Listened" sheetId="1" r:id="rId1"/>
+    <sheet name="2021" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>Album</t>
   </si>
@@ -107,9 +108,6 @@
     <t>Roddy Ricch</t>
   </si>
   <si>
-    <t>Blinding Lights</t>
-  </si>
-  <si>
     <t>The Weeknd</t>
   </si>
   <si>
@@ -231,6 +229,30 @@
   </si>
   <si>
     <t>Hit My Line, Soul Food II, 5 Hooks</t>
+  </si>
+  <si>
+    <t>Date Listened</t>
+  </si>
+  <si>
+    <t>After Hours</t>
+  </si>
+  <si>
+    <t>Hurry up, we're dreaming</t>
+  </si>
+  <si>
+    <t>M83</t>
+  </si>
+  <si>
+    <t>Midnight City, Reunion, Raconte-Moi Une Histoire</t>
+  </si>
+  <si>
+    <t>Ava Max</t>
+  </si>
+  <si>
+    <t>Kings &amp; Queens, Sweet but Psycho, Who's Laughing Now, Rumour</t>
+  </si>
+  <si>
+    <t>Heaven and Hell</t>
   </si>
 </sst>
 </file>
@@ -274,10 +296,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141C0AB1-ACDD-384E-987A-2A8F0C46842C}">
-  <dimension ref="B2:F24"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,24 +629,30 @@
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>44136</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -632,14 +662,17 @@
       <c r="D3">
         <v>2019</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>5.5</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>44136</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -653,10 +686,13 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>44136</v>
+      </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -670,15 +706,18 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>44136</v>
+      </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>2019</v>
@@ -687,10 +726,13 @@
         <v>6.5</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>44136</v>
+      </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -704,10 +746,13 @@
         <v>7.5</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>44136</v>
+      </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -721,15 +766,18 @@
         <v>8.5</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>44136</v>
+      </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
       </c>
       <c r="D9">
         <v>2019</v>
@@ -738,15 +786,18 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>44166</v>
+      </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
       </c>
       <c r="D11">
         <v>2020</v>
@@ -755,10 +806,13 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>44166</v>
+      </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -775,7 +829,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>44166</v>
+      </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -789,10 +846,13 @@
         <v>7.5</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>44166</v>
+      </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -806,15 +866,18 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>44166</v>
+      </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
       </c>
       <c r="D15">
         <v>2020</v>
@@ -823,15 +886,18 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>44166</v>
+      </c>
       <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
       </c>
       <c r="D16">
         <v>2020</v>
@@ -840,15 +906,18 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>44166</v>
+      </c>
       <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
       </c>
       <c r="D17">
         <v>2020</v>
@@ -857,10 +926,13 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>44166</v>
+      </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -874,15 +946,18 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>44166</v>
+      </c>
       <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
         <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
       </c>
       <c r="D19">
         <v>2020</v>
@@ -891,15 +966,18 @@
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>44166</v>
+      </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>2020</v>
@@ -908,15 +986,18 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>44166</v>
+      </c>
       <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
       </c>
       <c r="D21">
         <v>2020</v>
@@ -925,43 +1006,52 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>44166</v>
+      </c>
       <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22">
+        <v>2020</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>44166</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="D22">
-        <v>2020</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="F23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23">
-        <v>2020</v>
-      </c>
-      <c r="F23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>44166</v>
+      </c>
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
       </c>
       <c r="D24">
         <v>2020</v>
@@ -970,10 +1060,65 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>2011</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>2020</v>
+      </c>
+      <c r="E27">
+        <v>7.5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EED10F-F7CA-E04E-A0B8-321353E55D84}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>